--- a/贴纸.xlsx
+++ b/贴纸.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5895,6 +5895,46 @@
         <v>-10.09999999999999</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45918.83333333334</v>
+      </c>
+      <c r="B273" t="n">
+        <v>115</v>
+      </c>
+      <c r="C273" t="n">
+        <v>268</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45918.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>274</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
